--- a/data/pca/factorExposure/factorExposure_2011-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01150503252470758</v>
+        <v>0.01178530988474741</v>
       </c>
       <c r="C2">
-        <v>-0.03011470978920673</v>
+        <v>0.02453092644723453</v>
       </c>
       <c r="D2">
-        <v>-0.02072424270663326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0224679060047231</v>
+      </c>
+      <c r="E2">
+        <v>0.008861651048695589</v>
+      </c>
+      <c r="F2">
+        <v>-0.02641407258972015</v>
+      </c>
+      <c r="G2">
+        <v>0.002478384197968289</v>
+      </c>
+      <c r="H2">
+        <v>-0.03119448087378241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07458542132600277</v>
+        <v>0.08755870351353819</v>
       </c>
       <c r="C4">
-        <v>-0.05041144244616774</v>
+        <v>0.03431279218508005</v>
       </c>
       <c r="D4">
-        <v>-0.08299469555404847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07006263661636188</v>
+      </c>
+      <c r="E4">
+        <v>0.008148570636990022</v>
+      </c>
+      <c r="F4">
+        <v>-0.04271701933363942</v>
+      </c>
+      <c r="G4">
+        <v>-0.01035817283045148</v>
+      </c>
+      <c r="H4">
+        <v>0.03702246026417397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1104105317262241</v>
+        <v>0.1224878578431951</v>
       </c>
       <c r="C6">
-        <v>-0.04866589056268374</v>
+        <v>0.0339374973524294</v>
       </c>
       <c r="D6">
-        <v>-0.009329412905805145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01237256480604338</v>
+      </c>
+      <c r="E6">
+        <v>-0.02253553228662884</v>
+      </c>
+      <c r="F6">
+        <v>-0.05409777707078144</v>
+      </c>
+      <c r="G6">
+        <v>-0.03370836115403626</v>
+      </c>
+      <c r="H6">
+        <v>-0.1092715547911348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05552040260580288</v>
+        <v>0.06506092893378607</v>
       </c>
       <c r="C7">
-        <v>-0.02672163752337869</v>
+        <v>0.01311140145872191</v>
       </c>
       <c r="D7">
-        <v>-0.0352242835595744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04957575259504231</v>
+      </c>
+      <c r="E7">
+        <v>0.02909986722593078</v>
+      </c>
+      <c r="F7">
+        <v>-0.04643443538121787</v>
+      </c>
+      <c r="G7">
+        <v>0.03338247358445207</v>
+      </c>
+      <c r="H7">
+        <v>0.01096615827837172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.04082240702626307</v>
+        <v>0.04414577272406743</v>
       </c>
       <c r="C8">
-        <v>-0.01435058615480208</v>
+        <v>0.01044261453657994</v>
       </c>
       <c r="D8">
-        <v>-0.05801536134452441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02329518913997599</v>
+      </c>
+      <c r="E8">
+        <v>0.0129127371819415</v>
+      </c>
+      <c r="F8">
+        <v>-0.06844463360762951</v>
+      </c>
+      <c r="G8">
+        <v>-0.0505404057331687</v>
+      </c>
+      <c r="H8">
+        <v>-0.01681444366785411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07063099771037501</v>
+        <v>0.08006731621917547</v>
       </c>
       <c r="C9">
-        <v>-0.03856579224839372</v>
+        <v>0.02286598207774695</v>
       </c>
       <c r="D9">
-        <v>-0.07405617641725969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06407035574774428</v>
+      </c>
+      <c r="E9">
+        <v>0.02664984664168057</v>
+      </c>
+      <c r="F9">
+        <v>-0.03349027782459778</v>
+      </c>
+      <c r="G9">
+        <v>-0.02113265430828428</v>
+      </c>
+      <c r="H9">
+        <v>0.04389225618972836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03195084907455443</v>
+        <v>0.04512792684444261</v>
       </c>
       <c r="C10">
-        <v>-0.03079472471377035</v>
+        <v>0.06079109258079881</v>
       </c>
       <c r="D10">
-        <v>0.1757277143325144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1747180657814479</v>
+      </c>
+      <c r="E10">
+        <v>0.04128571864031256</v>
+      </c>
+      <c r="F10">
+        <v>-0.05335597772034705</v>
+      </c>
+      <c r="G10">
+        <v>0.03029376602782605</v>
+      </c>
+      <c r="H10">
+        <v>-0.05098003215529367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07286710790026923</v>
+        <v>0.07714119797489334</v>
       </c>
       <c r="C11">
-        <v>-0.04085781059284972</v>
+        <v>0.01957863465160783</v>
       </c>
       <c r="D11">
-        <v>-0.0568787845545273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06544282276336794</v>
+      </c>
+      <c r="E11">
+        <v>-0.008681578890870522</v>
+      </c>
+      <c r="F11">
+        <v>-0.03677560245975164</v>
+      </c>
+      <c r="G11">
+        <v>-0.02830566105211371</v>
+      </c>
+      <c r="H11">
+        <v>0.07222143958437087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06058452348402368</v>
+        <v>0.06954313091938569</v>
       </c>
       <c r="C12">
-        <v>-0.05007597072296759</v>
+        <v>0.03251895109238011</v>
       </c>
       <c r="D12">
-        <v>-0.04632656017450574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04981503458099397</v>
+      </c>
+      <c r="E12">
+        <v>0.009537596619825716</v>
+      </c>
+      <c r="F12">
+        <v>-0.02511155215628713</v>
+      </c>
+      <c r="G12">
+        <v>-0.01443791253423902</v>
+      </c>
+      <c r="H12">
+        <v>0.03027888933227836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06756362591394097</v>
+        <v>0.06732196110330126</v>
       </c>
       <c r="C13">
-        <v>-0.03365493451997512</v>
+        <v>0.01687189858323171</v>
       </c>
       <c r="D13">
-        <v>-0.04545702616168744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03944469178554932</v>
+      </c>
+      <c r="E13">
+        <v>0.01112609647859474</v>
+      </c>
+      <c r="F13">
+        <v>-0.02544988308236432</v>
+      </c>
+      <c r="G13">
+        <v>-0.003738018816666503</v>
+      </c>
+      <c r="H13">
+        <v>0.0503868374586076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03379986666674926</v>
+        <v>0.03957649580311372</v>
       </c>
       <c r="C14">
-        <v>-0.03132380148158519</v>
+        <v>0.02543132784521769</v>
       </c>
       <c r="D14">
-        <v>0.006257007305060468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01456262958870238</v>
+      </c>
+      <c r="E14">
+        <v>0.0266612219474089</v>
+      </c>
+      <c r="F14">
+        <v>-0.01916624129518789</v>
+      </c>
+      <c r="G14">
+        <v>-0.02475881983737201</v>
+      </c>
+      <c r="H14">
+        <v>0.05261139995992886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04194106735628327</v>
+        <v>0.04118136830166626</v>
       </c>
       <c r="C15">
-        <v>-0.00884666104551203</v>
+        <v>0.001924705264570734</v>
       </c>
       <c r="D15">
-        <v>-0.01848751433681161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00704022723980653</v>
+      </c>
+      <c r="E15">
+        <v>0.0359584704470032</v>
+      </c>
+      <c r="F15">
+        <v>-0.005127378861034353</v>
+      </c>
+      <c r="G15">
+        <v>-0.03282073198751084</v>
+      </c>
+      <c r="H15">
+        <v>0.02450899058792246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06043815628546403</v>
+        <v>0.07154811487777668</v>
       </c>
       <c r="C16">
-        <v>-0.03867443844379414</v>
+        <v>0.02295216910898199</v>
       </c>
       <c r="D16">
-        <v>-0.05191936912163302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06245264052095291</v>
+      </c>
+      <c r="E16">
+        <v>0.002339508015851205</v>
+      </c>
+      <c r="F16">
+        <v>-0.03166970529064065</v>
+      </c>
+      <c r="G16">
+        <v>-0.01330101113130576</v>
+      </c>
+      <c r="H16">
+        <v>0.04788227163490124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06435275895919555</v>
+        <v>0.06274356413168893</v>
       </c>
       <c r="C20">
-        <v>-0.02394928328259488</v>
+        <v>0.00602342181247106</v>
       </c>
       <c r="D20">
-        <v>-0.04690651120964455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04059835648800294</v>
+      </c>
+      <c r="E20">
+        <v>0.009202901562295519</v>
+      </c>
+      <c r="F20">
+        <v>-0.03130004318681911</v>
+      </c>
+      <c r="G20">
+        <v>-0.02371531463540797</v>
+      </c>
+      <c r="H20">
+        <v>0.04738564963370732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02877281651248162</v>
+        <v>0.02872731569388562</v>
       </c>
       <c r="C21">
-        <v>0.001616407525731496</v>
+        <v>-0.009202699661083643</v>
       </c>
       <c r="D21">
-        <v>-0.02079839811062498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02031864514892033</v>
+      </c>
+      <c r="E21">
+        <v>0.03981153182428539</v>
+      </c>
+      <c r="F21">
+        <v>0.002612335526676178</v>
+      </c>
+      <c r="G21">
+        <v>-0.01039135292238508</v>
+      </c>
+      <c r="H21">
+        <v>-0.05211318841850283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07822272693806832</v>
+        <v>0.07073420306296233</v>
       </c>
       <c r="C22">
-        <v>-0.06002588024362034</v>
+        <v>0.03476758996328687</v>
       </c>
       <c r="D22">
-        <v>-0.142062687148528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0986394785525268</v>
+      </c>
+      <c r="E22">
+        <v>0.6153805820186297</v>
+      </c>
+      <c r="F22">
+        <v>0.07018749802003178</v>
+      </c>
+      <c r="G22">
+        <v>0.1351309897436505</v>
+      </c>
+      <c r="H22">
+        <v>-0.1401444982716701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07921204551252009</v>
+        <v>0.07164061281030709</v>
       </c>
       <c r="C23">
-        <v>-0.05872339178423631</v>
+        <v>0.03344909348521949</v>
       </c>
       <c r="D23">
-        <v>-0.143281346498988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.09965938794586995</v>
+      </c>
+      <c r="E23">
+        <v>0.6174181483952366</v>
+      </c>
+      <c r="F23">
+        <v>0.06939527927751542</v>
+      </c>
+      <c r="G23">
+        <v>0.1302790892499565</v>
+      </c>
+      <c r="H23">
+        <v>-0.1351126263446669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07656619147015632</v>
+        <v>0.08148029623690135</v>
       </c>
       <c r="C24">
-        <v>-0.04997174951664533</v>
+        <v>0.0281976612478196</v>
       </c>
       <c r="D24">
-        <v>-0.06141094410320803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06335210638146621</v>
+      </c>
+      <c r="E24">
+        <v>0.008805301884019231</v>
+      </c>
+      <c r="F24">
+        <v>-0.04212738503626779</v>
+      </c>
+      <c r="G24">
+        <v>-0.02590043689803623</v>
+      </c>
+      <c r="H24">
+        <v>0.03541814135711067</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07477811730156703</v>
+        <v>0.07959130959175077</v>
       </c>
       <c r="C25">
-        <v>-0.05244230498577815</v>
+        <v>0.03249623504472616</v>
       </c>
       <c r="D25">
-        <v>-0.06519985421272878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05253493835182031</v>
+      </c>
+      <c r="E25">
+        <v>0.01559862954122618</v>
+      </c>
+      <c r="F25">
+        <v>-0.03620860226010126</v>
+      </c>
+      <c r="G25">
+        <v>-0.03735303293416679</v>
+      </c>
+      <c r="H25">
+        <v>0.04204745003995099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04624090813201843</v>
+        <v>0.04578597275455291</v>
       </c>
       <c r="C26">
-        <v>-0.009251471286312905</v>
+        <v>-0.001091514723646346</v>
       </c>
       <c r="D26">
-        <v>-0.01521182165173882</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02078425422734767</v>
+      </c>
+      <c r="E26">
+        <v>0.04202494466478541</v>
+      </c>
+      <c r="F26">
+        <v>-0.03962558351568304</v>
+      </c>
+      <c r="G26">
+        <v>-0.01009619489804157</v>
+      </c>
+      <c r="H26">
+        <v>0.04997706608678333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05084368806319892</v>
+        <v>0.07017186647819711</v>
       </c>
       <c r="C28">
-        <v>-0.07310654631417307</v>
+        <v>0.1153773875067055</v>
       </c>
       <c r="D28">
-        <v>0.2980768235417931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2952399108406886</v>
+      </c>
+      <c r="E28">
+        <v>0.03321092553380919</v>
+      </c>
+      <c r="F28">
+        <v>-0.0602443493768061</v>
+      </c>
+      <c r="G28">
+        <v>-0.02408353683625549</v>
+      </c>
+      <c r="H28">
+        <v>-0.04871950343942161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0457978359457373</v>
+        <v>0.04746439308725978</v>
       </c>
       <c r="C29">
-        <v>-0.02909368323521044</v>
+        <v>0.02107070771805213</v>
       </c>
       <c r="D29">
-        <v>-0.005367203192407848</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01293055897368365</v>
+      </c>
+      <c r="E29">
+        <v>0.05626074879184198</v>
+      </c>
+      <c r="F29">
+        <v>-0.02011623355135119</v>
+      </c>
+      <c r="G29">
+        <v>-0.01746827728116453</v>
+      </c>
+      <c r="H29">
+        <v>0.0727599918136576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1284063063487406</v>
+        <v>0.1279078932893322</v>
       </c>
       <c r="C30">
-        <v>-0.08667716867616021</v>
+        <v>0.05335281830756945</v>
       </c>
       <c r="D30">
-        <v>-0.1004078014777234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08033412729155337</v>
+      </c>
+      <c r="E30">
+        <v>0.06421264495173865</v>
+      </c>
+      <c r="F30">
+        <v>-0.02533658707987944</v>
+      </c>
+      <c r="G30">
+        <v>-0.06891543788749473</v>
+      </c>
+      <c r="H30">
+        <v>-0.04299629165025461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04836586095794575</v>
+        <v>0.04995048491024066</v>
       </c>
       <c r="C31">
-        <v>-0.02268026926998252</v>
+        <v>0.01018559892676032</v>
       </c>
       <c r="D31">
-        <v>-0.02271044437496063</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03284975293426975</v>
+      </c>
+      <c r="E31">
+        <v>0.02294681635674579</v>
+      </c>
+      <c r="F31">
+        <v>-0.008817677637087705</v>
+      </c>
+      <c r="G31">
+        <v>0.007415899272633369</v>
+      </c>
+      <c r="H31">
+        <v>0.06601925283385723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03691158867136714</v>
+        <v>0.03981776283961608</v>
       </c>
       <c r="C32">
-        <v>-0.02346235451464062</v>
+        <v>0.02190531793711366</v>
       </c>
       <c r="D32">
-        <v>-0.02470237353872222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00978411683641708</v>
+      </c>
+      <c r="E32">
+        <v>0.05834693931022703</v>
+      </c>
+      <c r="F32">
+        <v>0.002158782403615398</v>
+      </c>
+      <c r="G32">
+        <v>-0.03663092794898416</v>
+      </c>
+      <c r="H32">
+        <v>0.03159882134139363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08641745581076764</v>
+        <v>0.09494103936215421</v>
       </c>
       <c r="C33">
-        <v>-0.03916987550887291</v>
+        <v>0.01955002940375682</v>
       </c>
       <c r="D33">
-        <v>-0.05400687717252717</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04828954627688063</v>
+      </c>
+      <c r="E33">
+        <v>0.01171313055381731</v>
+      </c>
+      <c r="F33">
+        <v>-0.01222991244594653</v>
+      </c>
+      <c r="G33">
+        <v>-0.01069125508427175</v>
+      </c>
+      <c r="H33">
+        <v>0.06333932538166322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05951563871674263</v>
+        <v>0.06440437095859576</v>
       </c>
       <c r="C34">
-        <v>-0.02379060759468242</v>
+        <v>0.007234799421329727</v>
       </c>
       <c r="D34">
-        <v>-0.05295886033509184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04941294462166412</v>
+      </c>
+      <c r="E34">
+        <v>0.005390026419658217</v>
+      </c>
+      <c r="F34">
+        <v>-0.02453617225188761</v>
+      </c>
+      <c r="G34">
+        <v>-0.01714907120614573</v>
+      </c>
+      <c r="H34">
+        <v>0.05149689859930653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03755675573383609</v>
+        <v>0.03918644643003565</v>
       </c>
       <c r="C35">
-        <v>-0.007673779566218611</v>
+        <v>0.001388403067431728</v>
       </c>
       <c r="D35">
-        <v>-0.01685915678438735</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01339840599343645</v>
+      </c>
+      <c r="E35">
+        <v>0.02167904741463606</v>
+      </c>
+      <c r="F35">
+        <v>0.01478453691038554</v>
+      </c>
+      <c r="G35">
+        <v>0.001950934750846663</v>
+      </c>
+      <c r="H35">
+        <v>0.02094473753655322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02499360934246339</v>
+        <v>0.02973037836316453</v>
       </c>
       <c r="C36">
-        <v>-0.0177320878859947</v>
+        <v>0.01346603677558667</v>
       </c>
       <c r="D36">
-        <v>-0.0205142623842374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01664764740651271</v>
+      </c>
+      <c r="E36">
+        <v>0.02696404980579216</v>
+      </c>
+      <c r="F36">
+        <v>-0.02975425497221913</v>
+      </c>
+      <c r="G36">
+        <v>-0.002697583422444394</v>
+      </c>
+      <c r="H36">
+        <v>0.04095449569556353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0429459796573702</v>
+        <v>0.04519319632052848</v>
       </c>
       <c r="C38">
-        <v>-0.002626799978348723</v>
+        <v>-0.004524580755029114</v>
       </c>
       <c r="D38">
-        <v>-0.02095987367797242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02103670420509045</v>
+      </c>
+      <c r="E38">
+        <v>0.05280015288118278</v>
+      </c>
+      <c r="F38">
+        <v>6.059060089366326e-05</v>
+      </c>
+      <c r="G38">
+        <v>-0.009154894352891001</v>
+      </c>
+      <c r="H38">
+        <v>0.02210010280602748</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09032827790485634</v>
+        <v>0.09907214195052093</v>
       </c>
       <c r="C39">
-        <v>-0.06649544570525046</v>
+        <v>0.04323910912024541</v>
       </c>
       <c r="D39">
-        <v>-0.06134674751071224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07038748274407344</v>
+      </c>
+      <c r="E39">
+        <v>0.0006464568292456043</v>
+      </c>
+      <c r="F39">
+        <v>-0.00170363597290645</v>
+      </c>
+      <c r="G39">
+        <v>-0.04730756751688533</v>
+      </c>
+      <c r="H39">
+        <v>0.03322646264040707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08020375872326126</v>
+        <v>0.06304344945278666</v>
       </c>
       <c r="C40">
-        <v>-0.03442067092829203</v>
+        <v>0.004194618404002469</v>
       </c>
       <c r="D40">
-        <v>-0.01098382987143358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03279407575870464</v>
+      </c>
+      <c r="E40">
+        <v>0.03683927396422445</v>
+      </c>
+      <c r="F40">
+        <v>0.04102415239847495</v>
+      </c>
+      <c r="G40">
+        <v>-0.02689732779440914</v>
+      </c>
+      <c r="H40">
+        <v>-0.09278758751656806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04457579232799909</v>
+        <v>0.0460429305017017</v>
       </c>
       <c r="C41">
-        <v>-0.005236217742747866</v>
+        <v>-0.005704937179532787</v>
       </c>
       <c r="D41">
-        <v>-0.03695546110908457</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03206334831845493</v>
+      </c>
+      <c r="E41">
+        <v>0.002672128915743518</v>
+      </c>
+      <c r="F41">
+        <v>0.0131005573701109</v>
+      </c>
+      <c r="G41">
+        <v>-0.01567390400080275</v>
+      </c>
+      <c r="H41">
+        <v>0.02254605764744587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05409434313872981</v>
+        <v>0.0608337787238953</v>
       </c>
       <c r="C43">
-        <v>-0.02515365579688246</v>
+        <v>0.01433581961128588</v>
       </c>
       <c r="D43">
-        <v>-0.01441262289465712</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02810360410433081</v>
+      </c>
+      <c r="E43">
+        <v>0.02062553754582673</v>
+      </c>
+      <c r="F43">
+        <v>-0.01801043307709485</v>
+      </c>
+      <c r="G43">
+        <v>0.007829629855526396</v>
+      </c>
+      <c r="H43">
+        <v>0.06046574682833117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09507856090784987</v>
+        <v>0.09358224004194125</v>
       </c>
       <c r="C44">
-        <v>-0.08169443493797664</v>
+        <v>0.05258558665873946</v>
       </c>
       <c r="D44">
-        <v>-0.07996773375013326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.07155823816400964</v>
+      </c>
+      <c r="E44">
+        <v>0.05869397412016768</v>
+      </c>
+      <c r="F44">
+        <v>-0.09611804728812916</v>
+      </c>
+      <c r="G44">
+        <v>-0.04084450188845068</v>
+      </c>
+      <c r="H44">
+        <v>0.0760986545091005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02794031420879579</v>
+        <v>0.03551718604147235</v>
       </c>
       <c r="C46">
-        <v>-0.01465998873041125</v>
+        <v>0.008590762662141482</v>
       </c>
       <c r="D46">
-        <v>-0.03221878904528157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03663528807028993</v>
+      </c>
+      <c r="E46">
+        <v>0.03232222461680453</v>
+      </c>
+      <c r="F46">
+        <v>-0.01587489608965486</v>
+      </c>
+      <c r="G46">
+        <v>-0.007223368923732434</v>
+      </c>
+      <c r="H46">
+        <v>0.02017598121535802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03541119784573996</v>
+        <v>0.04156421266970686</v>
       </c>
       <c r="C47">
-        <v>-0.02380675114854124</v>
+        <v>0.01849917912166221</v>
       </c>
       <c r="D47">
-        <v>-0.0005013052116824667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007148637009126146</v>
+      </c>
+      <c r="E47">
+        <v>0.03996727016278772</v>
+      </c>
+      <c r="F47">
+        <v>0.008556376679525078</v>
+      </c>
+      <c r="G47">
+        <v>0.02470801021061894</v>
+      </c>
+      <c r="H47">
+        <v>0.02708247838539647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03638371188806263</v>
+        <v>0.03967257868220426</v>
       </c>
       <c r="C48">
-        <v>-0.01868223801675113</v>
+        <v>0.0104510145535462</v>
       </c>
       <c r="D48">
-        <v>-0.03174645710812042</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02046002629566229</v>
+      </c>
+      <c r="E48">
+        <v>0.0378008695234372</v>
+      </c>
+      <c r="F48">
+        <v>-0.01389740995050745</v>
+      </c>
+      <c r="G48">
+        <v>-0.02231319217110754</v>
+      </c>
+      <c r="H48">
+        <v>0.0263315691930249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1644470434625085</v>
+        <v>0.1980991897303382</v>
       </c>
       <c r="C49">
-        <v>-0.04655787159874224</v>
+        <v>0.02895221114097674</v>
       </c>
       <c r="D49">
-        <v>-0.00541469557359413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02677959999284198</v>
+      </c>
+      <c r="E49">
+        <v>-0.1653541586448683</v>
+      </c>
+      <c r="F49">
+        <v>-0.03260437837280122</v>
+      </c>
+      <c r="G49">
+        <v>0.1361363537711802</v>
+      </c>
+      <c r="H49">
+        <v>-0.2582833703559775</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04308238609243292</v>
+        <v>0.04616485609499693</v>
       </c>
       <c r="C50">
-        <v>-0.0202727284042606</v>
+        <v>0.00968499538055473</v>
       </c>
       <c r="D50">
-        <v>-0.04283451450456088</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03919333185536669</v>
+      </c>
+      <c r="E50">
+        <v>0.03495363300781634</v>
+      </c>
+      <c r="F50">
+        <v>-0.01035655932498525</v>
+      </c>
+      <c r="G50">
+        <v>-0.0007097965288445725</v>
+      </c>
+      <c r="H50">
+        <v>0.07554840386273728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.03009140223556588</v>
+        <v>0.03485576413423578</v>
       </c>
       <c r="C51">
-        <v>-0.01046859275865461</v>
+        <v>0.006146161107860502</v>
       </c>
       <c r="D51">
-        <v>-0.001204622881321503</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001638655526601707</v>
+      </c>
+      <c r="E51">
+        <v>0.006882765682385505</v>
+      </c>
+      <c r="F51">
+        <v>-0.0102443886625005</v>
+      </c>
+      <c r="G51">
+        <v>0.01318050091860155</v>
+      </c>
+      <c r="H51">
+        <v>-0.01752291092174363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1560755802211007</v>
+        <v>0.1606158851871296</v>
       </c>
       <c r="C53">
-        <v>-0.07104565597549789</v>
+        <v>0.04289149725715243</v>
       </c>
       <c r="D53">
-        <v>-0.001149211464799959</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02754445991373327</v>
+      </c>
+      <c r="E53">
+        <v>-0.03582909877600644</v>
+      </c>
+      <c r="F53">
+        <v>-0.0004752520491236255</v>
+      </c>
+      <c r="G53">
+        <v>-0.01248845432789799</v>
+      </c>
+      <c r="H53">
+        <v>0.2008900624082413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05715050838812016</v>
+        <v>0.05843056152726105</v>
       </c>
       <c r="C54">
-        <v>-0.02008721464773943</v>
+        <v>0.01094612101332001</v>
       </c>
       <c r="D54">
-        <v>-0.0162743509117915</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01360932956349056</v>
+      </c>
+      <c r="E54">
+        <v>0.04950152270514878</v>
+      </c>
+      <c r="F54">
+        <v>-0.01954984698197886</v>
+      </c>
+      <c r="G54">
+        <v>-0.04720880277639036</v>
+      </c>
+      <c r="H54">
+        <v>0.03891173538425544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1026114535959584</v>
+        <v>0.1043026675418092</v>
       </c>
       <c r="C55">
-        <v>-0.04984818436724057</v>
+        <v>0.02939682650516516</v>
       </c>
       <c r="D55">
-        <v>-0.02102360266957333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03043740301301363</v>
+      </c>
+      <c r="E55">
+        <v>1.287114728445283e-05</v>
+      </c>
+      <c r="F55">
+        <v>-0.01226520985384283</v>
+      </c>
+      <c r="G55">
+        <v>-0.0201672807636001</v>
+      </c>
+      <c r="H55">
+        <v>0.1574567982504802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.152626408732667</v>
+        <v>0.1586416186007175</v>
       </c>
       <c r="C56">
-        <v>-0.0814055550969983</v>
+        <v>0.04990875027954755</v>
       </c>
       <c r="D56">
-        <v>-0.005174515651461923</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04029210476594811</v>
+      </c>
+      <c r="E56">
+        <v>-0.01964970765555706</v>
+      </c>
+      <c r="F56">
+        <v>-0.02033322214977945</v>
+      </c>
+      <c r="G56">
+        <v>-0.01080386610846937</v>
+      </c>
+      <c r="H56">
+        <v>0.2012853797887215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1315336650172204</v>
+        <v>0.09993406998030807</v>
       </c>
       <c r="C58">
-        <v>0.007876108573285091</v>
+        <v>-0.04971178863529329</v>
       </c>
       <c r="D58">
-        <v>-0.0387911000849497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03168329442516912</v>
+      </c>
+      <c r="E58">
+        <v>0.132618701621793</v>
+      </c>
+      <c r="F58">
+        <v>-0.01130214718852617</v>
+      </c>
+      <c r="G58">
+        <v>0.0870949846883152</v>
+      </c>
+      <c r="H58">
+        <v>-0.1670775803591631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1255546797477081</v>
+        <v>0.1471239884765876</v>
       </c>
       <c r="C59">
-        <v>-0.08127953426619411</v>
+        <v>0.1203899166961197</v>
       </c>
       <c r="D59">
-        <v>0.3878951375537169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3517026611296428</v>
+      </c>
+      <c r="E59">
+        <v>0.02953293574571051</v>
+      </c>
+      <c r="F59">
+        <v>-0.00287626532025741</v>
+      </c>
+      <c r="G59">
+        <v>0.008970744944722994</v>
+      </c>
+      <c r="H59">
+        <v>0.01112935104884138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2091613862362554</v>
+        <v>0.2381066643757005</v>
       </c>
       <c r="C60">
-        <v>-0.08883510643565408</v>
+        <v>0.05539729321268905</v>
       </c>
       <c r="D60">
-        <v>-0.01805780775093623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04869942686491723</v>
+      </c>
+      <c r="E60">
+        <v>-0.1138526679627612</v>
+      </c>
+      <c r="F60">
+        <v>-0.04322665211101964</v>
+      </c>
+      <c r="G60">
+        <v>0.02066659827804058</v>
+      </c>
+      <c r="H60">
+        <v>-0.1515637230034818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08206425542492438</v>
+        <v>0.08786270937915465</v>
       </c>
       <c r="C61">
-        <v>-0.04473681264542528</v>
+        <v>0.02738332703606643</v>
       </c>
       <c r="D61">
-        <v>-0.0343180323048723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04278524573180924</v>
+      </c>
+      <c r="E61">
+        <v>0.00249224608582991</v>
+      </c>
+      <c r="F61">
+        <v>-0.007194760408722434</v>
+      </c>
+      <c r="G61">
+        <v>-0.01981000340483478</v>
+      </c>
+      <c r="H61">
+        <v>0.06268281240583039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1314742921662824</v>
+        <v>0.1349075465576689</v>
       </c>
       <c r="C62">
-        <v>-0.05601691843869181</v>
+        <v>0.02634754846427351</v>
       </c>
       <c r="D62">
-        <v>-0.01390081712713851</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04719809831290698</v>
+      </c>
+      <c r="E62">
+        <v>-0.05536561578505199</v>
+      </c>
+      <c r="F62">
+        <v>0.008609851297032088</v>
+      </c>
+      <c r="G62">
+        <v>-0.06121896796446639</v>
+      </c>
+      <c r="H62">
+        <v>0.209686412546069</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05280124152085251</v>
+        <v>0.05256332827548538</v>
       </c>
       <c r="C63">
-        <v>-0.02266611335870796</v>
+        <v>0.01276106332232194</v>
       </c>
       <c r="D63">
-        <v>-0.02725708519272077</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02063620955672341</v>
+      </c>
+      <c r="E63">
+        <v>0.04437154422177204</v>
+      </c>
+      <c r="F63">
+        <v>-0.004232465899963856</v>
+      </c>
+      <c r="G63">
+        <v>-0.02759397300374111</v>
+      </c>
+      <c r="H63">
+        <v>0.03551169462141106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1047707691751065</v>
+        <v>0.1084664501108179</v>
       </c>
       <c r="C64">
-        <v>-0.02769199461907627</v>
+        <v>0.0107607266328857</v>
       </c>
       <c r="D64">
-        <v>-0.03307688713812511</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02992096163000302</v>
+      </c>
+      <c r="E64">
+        <v>0.03220067589476373</v>
+      </c>
+      <c r="F64">
+        <v>-0.04379761070121943</v>
+      </c>
+      <c r="G64">
+        <v>-0.05786339621490945</v>
+      </c>
+      <c r="H64">
+        <v>0.02082138524595164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1287284462949617</v>
+        <v>0.1293910965146732</v>
       </c>
       <c r="C65">
-        <v>-0.05574081230122206</v>
+        <v>0.0374549007981182</v>
       </c>
       <c r="D65">
-        <v>-0.01273741399276292</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01485366350576935</v>
+      </c>
+      <c r="E65">
+        <v>-0.008991535885940425</v>
+      </c>
+      <c r="F65">
+        <v>-0.0532342447965958</v>
+      </c>
+      <c r="G65">
+        <v>-0.06283675206639451</v>
+      </c>
+      <c r="H65">
+        <v>-0.1273593490930728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1489593769015624</v>
+        <v>0.1518669830954398</v>
       </c>
       <c r="C66">
-        <v>-0.0653496621526749</v>
+        <v>0.02923137574899622</v>
       </c>
       <c r="D66">
-        <v>-0.09918648179078307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1023422089020267</v>
+      </c>
+      <c r="E66">
+        <v>-0.02679506744152814</v>
+      </c>
+      <c r="F66">
+        <v>-0.002518547167072242</v>
+      </c>
+      <c r="G66">
+        <v>-0.06246587369891612</v>
+      </c>
+      <c r="H66">
+        <v>0.09199662576112257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07603843909049389</v>
+        <v>0.08589296013398842</v>
       </c>
       <c r="C67">
-        <v>-0.008716336581011511</v>
+        <v>-0.002234779252353446</v>
       </c>
       <c r="D67">
-        <v>-0.02380364589448817</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03178339883119775</v>
+      </c>
+      <c r="E67">
+        <v>0.02130796895152699</v>
+      </c>
+      <c r="F67">
+        <v>-0.01786105145754482</v>
+      </c>
+      <c r="G67">
+        <v>0.008647485388480121</v>
+      </c>
+      <c r="H67">
+        <v>0.02326517824916818</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05882169928472061</v>
+        <v>0.0646427689551847</v>
       </c>
       <c r="C68">
-        <v>-0.05257774534818308</v>
+        <v>0.08750112889853742</v>
       </c>
       <c r="D68">
-        <v>0.2555471592380072</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2621554309757905</v>
+      </c>
+      <c r="E68">
+        <v>0.04210807690520422</v>
+      </c>
+      <c r="F68">
+        <v>-0.01693188166193836</v>
+      </c>
+      <c r="G68">
+        <v>0.005580783021420412</v>
+      </c>
+      <c r="H68">
+        <v>0.01604138474079668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05368327992766177</v>
+        <v>0.05297292883287909</v>
       </c>
       <c r="C69">
-        <v>-0.01562444802629967</v>
+        <v>0.003126472110577669</v>
       </c>
       <c r="D69">
-        <v>-0.0260412113034162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0198149294226899</v>
+      </c>
+      <c r="E69">
+        <v>0.02375411372661075</v>
+      </c>
+      <c r="F69">
+        <v>0.01228640859650084</v>
+      </c>
+      <c r="G69">
+        <v>0.001059466050502713</v>
+      </c>
+      <c r="H69">
+        <v>0.04983350179309345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004338043337506426</v>
+        <v>0.0286834447174755</v>
       </c>
       <c r="C70">
-        <v>0.007381474354655169</v>
+        <v>-0.002509379464010645</v>
       </c>
       <c r="D70">
-        <v>0.01415092047453936</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.009009389505197866</v>
+      </c>
+      <c r="E70">
+        <v>-0.01981767124510493</v>
+      </c>
+      <c r="F70">
+        <v>-0.004231674816857117</v>
+      </c>
+      <c r="G70">
+        <v>0.02661677507478294</v>
+      </c>
+      <c r="H70">
+        <v>-0.03108019074784694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05839123645977531</v>
+        <v>0.06992652630594906</v>
       </c>
       <c r="C71">
-        <v>-0.05237861712135528</v>
+        <v>0.09598329964269595</v>
       </c>
       <c r="D71">
-        <v>0.293476350900322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2902255577361892</v>
+      </c>
+      <c r="E71">
+        <v>0.03886389181504353</v>
+      </c>
+      <c r="F71">
+        <v>-0.04687761285363916</v>
+      </c>
+      <c r="G71">
+        <v>-0.000177504269576366</v>
+      </c>
+      <c r="H71">
+        <v>0.008942281624911806</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1429456153535852</v>
+        <v>0.144854910674439</v>
       </c>
       <c r="C72">
-        <v>-0.05646433122842635</v>
+        <v>0.02968076960141506</v>
       </c>
       <c r="D72">
-        <v>-0.0005268149574481756</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002732259533718302</v>
+      </c>
+      <c r="E72">
+        <v>-0.05755999775701932</v>
+      </c>
+      <c r="F72">
+        <v>0.1576235769556202</v>
+      </c>
+      <c r="G72">
+        <v>-0.1162555097886971</v>
+      </c>
+      <c r="H72">
+        <v>-0.01423415695352431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2880112384431015</v>
+        <v>0.2877678411161956</v>
       </c>
       <c r="C73">
-        <v>-0.08924465083875605</v>
+        <v>0.01921591409649412</v>
       </c>
       <c r="D73">
-        <v>-0.04123908536154103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09966745660778299</v>
+      </c>
+      <c r="E73">
+        <v>-0.2454361109047164</v>
+      </c>
+      <c r="F73">
+        <v>-0.04896793167304935</v>
+      </c>
+      <c r="G73">
+        <v>0.2472866787306088</v>
+      </c>
+      <c r="H73">
+        <v>-0.4256102276845545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08445211825547289</v>
+        <v>0.09254744323120476</v>
       </c>
       <c r="C74">
-        <v>-0.07411814219129488</v>
+        <v>0.05399338133434415</v>
       </c>
       <c r="D74">
-        <v>-0.009766757496423461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03980089826588624</v>
+      </c>
+      <c r="E74">
+        <v>-0.008197163134967602</v>
+      </c>
+      <c r="F74">
+        <v>0.003579167303487292</v>
+      </c>
+      <c r="G74">
+        <v>0.02425900918154853</v>
+      </c>
+      <c r="H74">
+        <v>0.1304461801486491</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1005957250914213</v>
+        <v>0.1034246614923875</v>
       </c>
       <c r="C75">
-        <v>-0.04688715512643344</v>
+        <v>0.02115171302798177</v>
       </c>
       <c r="D75">
-        <v>-0.01267276715138987</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02581983220500098</v>
+      </c>
+      <c r="E75">
+        <v>-0.002576036738777644</v>
+      </c>
+      <c r="F75">
+        <v>-0.001487729813329461</v>
+      </c>
+      <c r="G75">
+        <v>0.003081098861986774</v>
+      </c>
+      <c r="H75">
+        <v>0.104643922018795</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1347290847792801</v>
+        <v>0.1431442642899485</v>
       </c>
       <c r="C76">
-        <v>-0.07687064764393728</v>
+        <v>0.04939108229114095</v>
       </c>
       <c r="D76">
-        <v>-0.0289856460908792</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.053152376707955</v>
+      </c>
+      <c r="E76">
+        <v>0.00961871994472195</v>
+      </c>
+      <c r="F76">
+        <v>-0.03528995930901524</v>
+      </c>
+      <c r="G76">
+        <v>-0.01872786876919734</v>
+      </c>
+      <c r="H76">
+        <v>0.2200706593008445</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1149948767184193</v>
+        <v>0.1010448854981738</v>
       </c>
       <c r="C77">
-        <v>-0.007343700131792428</v>
+        <v>-0.02379017539874442</v>
       </c>
       <c r="D77">
-        <v>-0.09025845125829331</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.04126279293362856</v>
+      </c>
+      <c r="E77">
+        <v>0.03428083524388893</v>
+      </c>
+      <c r="F77">
+        <v>-0.1036063637758336</v>
+      </c>
+      <c r="G77">
+        <v>-0.8271237623494665</v>
+      </c>
+      <c r="H77">
+        <v>-0.311783379635157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1067386614427711</v>
+        <v>0.151292624312755</v>
       </c>
       <c r="C78">
-        <v>-0.03520623449698694</v>
+        <v>0.0289742766756153</v>
       </c>
       <c r="D78">
-        <v>-0.09072712107631822</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08066816152992295</v>
+      </c>
+      <c r="E78">
+        <v>0.04773582562059008</v>
+      </c>
+      <c r="F78">
+        <v>-0.05750891144154113</v>
+      </c>
+      <c r="G78">
+        <v>-0.05499813926266714</v>
+      </c>
+      <c r="H78">
+        <v>-0.07269486043979927</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1491592017624667</v>
+        <v>0.1482993166125079</v>
       </c>
       <c r="C79">
-        <v>-0.06467173296561976</v>
+        <v>0.03043143629257048</v>
       </c>
       <c r="D79">
-        <v>-0.02209697162892154</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03947359919560143</v>
+      </c>
+      <c r="E79">
+        <v>-0.02064401792051543</v>
+      </c>
+      <c r="F79">
+        <v>-0.01723878804734445</v>
+      </c>
+      <c r="G79">
+        <v>-0.01196539465014536</v>
+      </c>
+      <c r="H79">
+        <v>0.1626846295496578</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04083682166029518</v>
+        <v>0.04143036623093748</v>
       </c>
       <c r="C80">
-        <v>-0.01871832787021604</v>
+        <v>0.01047836028216267</v>
       </c>
       <c r="D80">
-        <v>-0.03227830224428434</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01713458998127811</v>
+      </c>
+      <c r="E80">
+        <v>-0.0357223454184924</v>
+      </c>
+      <c r="F80">
+        <v>-0.002616050005376317</v>
+      </c>
+      <c r="G80">
+        <v>0.02165278215785814</v>
+      </c>
+      <c r="H80">
+        <v>0.03310894554173974</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1233836411647617</v>
+        <v>0.125050482328198</v>
       </c>
       <c r="C81">
-        <v>-0.05585928329094021</v>
+        <v>0.03010776833267088</v>
       </c>
       <c r="D81">
-        <v>-0.02860543180353457</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0299747321200997</v>
+      </c>
+      <c r="E81">
+        <v>0.009746683356719693</v>
+      </c>
+      <c r="F81">
+        <v>-0.006937162585923509</v>
+      </c>
+      <c r="G81">
+        <v>0.02164637277891088</v>
+      </c>
+      <c r="H81">
+        <v>0.1447259156172309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1334318333035474</v>
+        <v>0.130891368621357</v>
       </c>
       <c r="C82">
-        <v>-0.06950424936368932</v>
+        <v>0.04054537418093781</v>
       </c>
       <c r="D82">
-        <v>-0.006745210692499328</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03826534608973666</v>
+      </c>
+      <c r="E82">
+        <v>-0.02347466168377491</v>
+      </c>
+      <c r="F82">
+        <v>-0.0407624057563107</v>
+      </c>
+      <c r="G82">
+        <v>0.008793182260494957</v>
+      </c>
+      <c r="H82">
+        <v>0.2237779482159188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06800657119925957</v>
+        <v>0.08213197636855522</v>
       </c>
       <c r="C83">
-        <v>0.02988388869857444</v>
+        <v>-0.04079674582987394</v>
       </c>
       <c r="D83">
-        <v>-0.01722938302308302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02007832850165083</v>
+      </c>
+      <c r="E83">
+        <v>0.02096819116666606</v>
+      </c>
+      <c r="F83">
+        <v>-0.04637824427691389</v>
+      </c>
+      <c r="G83">
+        <v>0.06959080980285322</v>
+      </c>
+      <c r="H83">
+        <v>-0.02533393056771332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02893614647420087</v>
+        <v>0.03613150068150569</v>
       </c>
       <c r="C84">
-        <v>-0.02905337926019966</v>
+        <v>0.01994022006135813</v>
       </c>
       <c r="D84">
-        <v>-0.03581225160456818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03587768708922436</v>
+      </c>
+      <c r="E84">
+        <v>0.01894440124399053</v>
+      </c>
+      <c r="F84">
+        <v>0.04160543802968999</v>
+      </c>
+      <c r="G84">
+        <v>0.04909520556932436</v>
+      </c>
+      <c r="H84">
+        <v>0.02934146740684257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1174765869758499</v>
+        <v>0.1209898413916288</v>
       </c>
       <c r="C85">
-        <v>-0.03992689865790736</v>
+        <v>0.01650233605574068</v>
       </c>
       <c r="D85">
-        <v>-0.05115353237707385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03890989703523057</v>
+      </c>
+      <c r="E85">
+        <v>0.01381141478040889</v>
+      </c>
+      <c r="F85">
+        <v>-0.03138394968818346</v>
+      </c>
+      <c r="G85">
+        <v>0.006200374315071516</v>
+      </c>
+      <c r="H85">
+        <v>0.1474611139223933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05412840504267243</v>
+        <v>0.05744054622494711</v>
       </c>
       <c r="C86">
-        <v>-0.02114168042556209</v>
+        <v>0.007740799672826623</v>
       </c>
       <c r="D86">
-        <v>-0.06294070567837046</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0340350068283933</v>
+      </c>
+      <c r="E86">
+        <v>0.04196018455715933</v>
+      </c>
+      <c r="F86">
+        <v>-0.03590396298242921</v>
+      </c>
+      <c r="G86">
+        <v>0.0384040343552197</v>
+      </c>
+      <c r="H86">
+        <v>-0.03038853284688572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1217249274093186</v>
+        <v>0.1245500687255368</v>
       </c>
       <c r="C87">
-        <v>-0.06776212805092696</v>
+        <v>0.03178598786816229</v>
       </c>
       <c r="D87">
-        <v>-0.07329551548480985</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07149366077504524</v>
+      </c>
+      <c r="E87">
+        <v>0.01823323690246749</v>
+      </c>
+      <c r="F87">
+        <v>-0.01933757434972771</v>
+      </c>
+      <c r="G87">
+        <v>-0.1294368602509839</v>
+      </c>
+      <c r="H87">
+        <v>-0.07228996667369332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05364042287243918</v>
+        <v>0.06218895669565588</v>
       </c>
       <c r="C88">
-        <v>-0.02751900048488913</v>
+        <v>0.01666750875477362</v>
       </c>
       <c r="D88">
-        <v>-0.02713535340365038</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03887915989770321</v>
+      </c>
+      <c r="E88">
+        <v>0.008079661705793264</v>
+      </c>
+      <c r="F88">
+        <v>-0.01705832542890033</v>
+      </c>
+      <c r="G88">
+        <v>-0.01710894340555084</v>
+      </c>
+      <c r="H88">
+        <v>0.04040934407615195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08947284796483776</v>
+        <v>0.1077747407833668</v>
       </c>
       <c r="C89">
-        <v>-0.07592669201939092</v>
+        <v>0.1232120473050809</v>
       </c>
       <c r="D89">
-        <v>0.3291608152672457</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3381691304179095</v>
+      </c>
+      <c r="E89">
+        <v>0.05972795672524685</v>
+      </c>
+      <c r="F89">
+        <v>-0.0729326277031976</v>
+      </c>
+      <c r="G89">
+        <v>0.02257094558056928</v>
+      </c>
+      <c r="H89">
+        <v>0.01249706412131628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07035461442871656</v>
+        <v>0.08437618643452743</v>
       </c>
       <c r="C90">
-        <v>-0.06278388562088137</v>
+        <v>0.1012988825023101</v>
       </c>
       <c r="D90">
-        <v>0.2794482385262052</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2785314353496759</v>
+      </c>
+      <c r="E90">
+        <v>0.04881016958509369</v>
+      </c>
+      <c r="F90">
+        <v>-0.03915277376670482</v>
+      </c>
+      <c r="G90">
+        <v>-0.02096425644439861</v>
+      </c>
+      <c r="H90">
+        <v>-0.004972926902747954</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08981840456579186</v>
+        <v>0.09126581331243409</v>
       </c>
       <c r="C91">
-        <v>-0.04941281134064732</v>
+        <v>0.02596314699559397</v>
       </c>
       <c r="D91">
-        <v>-0.01965486022611336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03382807185479823</v>
+      </c>
+      <c r="E91">
+        <v>0.007725971433254343</v>
+      </c>
+      <c r="F91">
+        <v>0.0016666937027769</v>
+      </c>
+      <c r="G91">
+        <v>0.02246644566514778</v>
+      </c>
+      <c r="H91">
+        <v>0.09133007862404061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07546823773237012</v>
+        <v>0.08775443218675165</v>
       </c>
       <c r="C92">
-        <v>-0.07817907863250276</v>
+        <v>0.1232936824811937</v>
       </c>
       <c r="D92">
-        <v>0.3407246618286833</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3318506793555771</v>
+      </c>
+      <c r="E92">
+        <v>0.04053724808080808</v>
+      </c>
+      <c r="F92">
+        <v>-0.03980482835483554</v>
+      </c>
+      <c r="G92">
+        <v>-0.0126593000209822</v>
+      </c>
+      <c r="H92">
+        <v>0.01633939592668188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06645432496775207</v>
+        <v>0.08276789099300746</v>
       </c>
       <c r="C93">
-        <v>-0.06759539000368479</v>
+        <v>0.1121542575905363</v>
       </c>
       <c r="D93">
-        <v>0.3004819889531107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.294743946420338</v>
+      </c>
+      <c r="E93">
+        <v>0.0239815920717908</v>
+      </c>
+      <c r="F93">
+        <v>-0.03450020481661175</v>
+      </c>
+      <c r="G93">
+        <v>-0.01717851664046373</v>
+      </c>
+      <c r="H93">
+        <v>-9.138237393679796e-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1352414952266539</v>
+        <v>0.1295298426574321</v>
       </c>
       <c r="C94">
-        <v>-0.04304398682573463</v>
+        <v>0.008762142334142752</v>
       </c>
       <c r="D94">
-        <v>-0.04096624619867757</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0499293601927135</v>
+      </c>
+      <c r="E94">
+        <v>-0.01784041435750314</v>
+      </c>
+      <c r="F94">
+        <v>-0.01112899840326867</v>
+      </c>
+      <c r="G94">
+        <v>0.04589979409268351</v>
+      </c>
+      <c r="H94">
+        <v>0.1131890269859391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1211200513210909</v>
+        <v>0.1290796405686921</v>
       </c>
       <c r="C95">
-        <v>-0.01724699600972759</v>
+        <v>-0.008434258315981725</v>
       </c>
       <c r="D95">
-        <v>-0.05882222014623385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0605500156616941</v>
+      </c>
+      <c r="E95">
+        <v>0.009005183917582904</v>
+      </c>
+      <c r="F95">
+        <v>-0.05144669184576181</v>
+      </c>
+      <c r="G95">
+        <v>-0.02080714713509288</v>
+      </c>
+      <c r="H95">
+        <v>-0.07327567677809077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2188651049781989</v>
+        <v>0.1971267174875867</v>
       </c>
       <c r="C97">
-        <v>-0.04035084229487303</v>
+        <v>-0.004623192922898292</v>
       </c>
       <c r="D97">
-        <v>0.08791326804256903</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.06981872958784073</v>
+      </c>
+      <c r="E97">
+        <v>-0.06202072458152612</v>
+      </c>
+      <c r="F97">
+        <v>0.9291439825825623</v>
+      </c>
+      <c r="G97">
+        <v>-0.09039729585929279</v>
+      </c>
+      <c r="H97">
+        <v>-0.01330736120247159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2440280701408298</v>
+        <v>0.2724632087877286</v>
       </c>
       <c r="C98">
-        <v>-0.0522927161232159</v>
+        <v>0.01153804166425739</v>
       </c>
       <c r="D98">
-        <v>-0.02071793434487753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04896583133737088</v>
+      </c>
+      <c r="E98">
+        <v>-0.1875012337293826</v>
+      </c>
+      <c r="F98">
+        <v>-0.03775865030466004</v>
+      </c>
+      <c r="G98">
+        <v>0.2997533700546361</v>
+      </c>
+      <c r="H98">
+        <v>-0.1876222862156638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3932055711306799</v>
+        <v>0.2555955328605273</v>
       </c>
       <c r="C99">
-        <v>0.8996313864886484</v>
+        <v>-0.9189984225575929</v>
       </c>
       <c r="D99">
-        <v>0.07276783262173209</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2335109073458898</v>
+      </c>
+      <c r="E99">
+        <v>0.07070570451916577</v>
+      </c>
+      <c r="F99">
+        <v>-0.06910416824572212</v>
+      </c>
+      <c r="G99">
+        <v>0.00272859212901449</v>
+      </c>
+      <c r="H99">
+        <v>0.07453292233635818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04560198602055015</v>
+        <v>0.04739076990023684</v>
       </c>
       <c r="C101">
-        <v>-0.02921287413107232</v>
+        <v>0.02130301860963319</v>
       </c>
       <c r="D101">
-        <v>-0.006158751225420701</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01320962332297679</v>
+      </c>
+      <c r="E101">
+        <v>0.05623445584595526</v>
+      </c>
+      <c r="F101">
+        <v>-0.01967567303352045</v>
+      </c>
+      <c r="G101">
+        <v>-0.01657168255789071</v>
+      </c>
+      <c r="H101">
+        <v>0.07181827246397419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
